--- a/LR1/LZ77 от буфера.xlsx
+++ b/LR1/LZ77 от буфера.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Учеба\2 курс 2 семестр\АиСД\Итог\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Учеба\2 курс 2 семестр\АиСД\Итог\LR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E039C4D-DCB0-40EA-B879-53117F97B552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5880E573-9887-4E49-BE56-E6DFAADC2CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,48 +210,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$6:$B$10</c:f>
+              <c:f>Лист1!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2048</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$6:$C$10</c:f>
+              <c:f>Лист1!$C$6:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.4528940646733042</c:v>
+                  <c:v>0.54013361105844893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6149313118811881</c:v>
+                  <c:v>0.6064766346300654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8076833828939376</c:v>
+                  <c:v>0.6919531544143771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7025549457180864</c:v>
+                  <c:v>0.79357417921921225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8396277221915978</c:v>
+                  <c:v>0.91020949548231112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0399762972361652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1760801908602321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3151516159398817</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4535398205443821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -259,7 +283,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-50F0-4A3C-AC81-00FFEEA2DF51}"/>
+              <c16:uniqueId val="{00000001-5286-4CC5-9293-6CB7E5656E4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -521,7 +545,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1131,16 +1155,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>604469</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>267431</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>549519</xdr:rowOff>
+      <xdr:rowOff>395653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>461595</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>124556</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>155330</xdr:rowOff>
+      <xdr:rowOff>1464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1431,16 +1455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1481,62 +1505,110 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1796228</v>
+        <v>4831636</v>
       </c>
       <c r="B6">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C6" s="2">
         <f>$B$3/A6</f>
-        <v>1.4528940646733042</v>
+        <v>0.54013361105844893</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1616000</v>
+        <v>4303099</v>
       </c>
       <c r="B7">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:C10" si="0">$B$3/A7</f>
-        <v>1.6149313118811881</v>
+        <f t="shared" ref="C7:C14" si="0">$B$3/A7</f>
+        <v>0.6064766346300654</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1443687</v>
+        <v>3771540</v>
       </c>
       <c r="B8">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>1.8076833828939376</v>
+        <v>0.6919531544143771</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1532831</v>
+        <v>3288576</v>
       </c>
       <c r="B9">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>1.7025549457180864</v>
+        <v>0.79357417921921225</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1418618</v>
+        <v>2867174</v>
       </c>
       <c r="B10">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>1.8396277221915978</v>
+        <v>0.91020949548231112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2509412</v>
+      </c>
+      <c r="B11">
+        <v>8192</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0399762972361652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2219006</v>
+      </c>
+      <c r="B12">
+        <v>16384</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1760801908602321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1984356</v>
+      </c>
+      <c r="B13">
+        <v>32768</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3151516159398817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1795430</v>
+      </c>
+      <c r="B14">
+        <v>64536</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4535398205443821</v>
       </c>
     </row>
   </sheetData>
